--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/2_Adıyaman_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/2_Adıyaman_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DF0BE47-F982-480F-AFFB-A342037C033B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67737FE5-BBEC-4765-879B-D94C6011AA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7787EAE3-6D30-4659-B572-BE957D26F349}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6FC1D941-9332-4313-B0F0-A2631599E384}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{530E81DA-BAFC-4F29-AF38-9AB09EB4C3D7}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{C02B6AB9-FFD1-4A8A-A5BE-41BCD9B7FCBA}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{9F921301-7B60-43E7-88AD-0415BA365E39}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{9AE54308-B5CF-4A96-8387-25B7C80EF620}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{43E241D9-4A24-447E-BB78-7F0A9B742081}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{8E310009-D5AD-44D9-8553-F335DFF7EAB0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{0B6F6C1C-5FF5-4408-9F5D-2BC2ECD4B28B}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{1AEF2478-2CA0-476E-A8C9-3B0DA6200D0F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8836E829-9158-4737-B7DE-153BF8F5D56A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DF6DD6-938C-4869-B9A7-A0C87FE1E0F6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2423,18 +2423,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FA9E1505-FD84-4EAB-8DB7-B8370C941D32}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{72696548-68B0-4B56-AEBB-A9DDBDF5ED10}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1E9455E4-4D03-4134-8DB3-BB122F3FAF2D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2E8E5950-736C-407F-A58F-42E3AFA9E695}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{642EFD2F-681D-4BC4-A023-3E40418EDD86}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{483E2424-EC46-4025-B75B-50A406750620}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4EE570F9-F2D9-4E45-809A-C4A24147D2DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C0C31C00-0E28-4997-BD23-97C8777D3AAE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0B1C0D0D-174B-4B51-A6DB-DD1339C18E53}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9C094E1F-8FC5-4CB3-B453-3B95D0F897C0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B94C443A-0844-4BF5-BE98-614D59C46136}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9C2E6CEB-0211-4D55-B073-D229FC705CB1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F12697A1-BC8A-4339-8A3E-7C6A807F7AF7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{37F37725-214D-4B67-9F9D-43D486E3C6B3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7C700285-A965-47CD-99FB-49E2A038B814}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{85DB12E1-6A49-4D81-AA06-8101B8999D6D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{894063D7-2360-4FF1-A266-044DD37F8EF5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F35863CF-8047-4D82-B2D8-4704A89B2BE3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{152FF102-46BE-46EA-8611-F5F9236A8B81}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{92CC7FB8-7AA4-41F1-AF16-256D75E7EC4B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{50F56A60-CF2A-45B1-AA29-E59EECEA49D1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{35DA130F-1797-486D-8416-54ACC7475C71}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8F0EDB1A-1DFF-48E5-9F8C-A8CC26DE836B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{08595E87-754E-4B09-9072-2B762F0E2A45}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2447,7 +2447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9006515-BE94-421A-B1D7-1730A3018838}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020886B5-B37D-49E8-998E-0B444B6AA65F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3612,18 +3612,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{136A9D7A-EF61-4F42-98C8-96E7FA6D8CB9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9D72F0DC-0377-4C51-AADC-900E4DD42910}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AA8E9FD2-B9A7-434A-8410-383FF599D3BC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A6B3BCE2-39C0-41E0-8CE2-6456B8C12D88}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ED924DAF-9459-4D3F-AE6D-5DBF520C1A75}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3C7F197E-6AB1-4996-B19C-85165F83B132}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D33AE428-4B40-416F-A32B-602ECE2140D4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{381F00FE-7C1C-4A04-9E19-024D7002CA8F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{992526F5-E836-4354-9587-EF0126D315D8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C300FEC2-499E-449A-90F0-832B40E13ADA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BFE3D31D-0EEE-4B43-8D3B-4173EA7C6268}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{656DBD59-CCE4-44CC-9EDC-F157D27793EC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BB0C891C-CB79-4DFF-AA6E-FE52C8EFD3D2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BC329C99-11BF-4843-818A-383C53D25F35}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{630F7A4B-EAC7-4B44-813A-0B7E3E9D62D9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7A2B0F71-06E6-48E6-A47A-063132BEEC9F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5F4CE7CD-5B6D-4A22-BAD6-DDCC1CA70CB2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C0D42F06-F306-45F9-A087-0E8FE80E7C92}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3457CBF3-4AAE-4A2E-94D6-7FABA9BB8D59}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{25E414DA-18CD-489F-9C3E-2E3994AFD711}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0FF88698-A023-4D1F-B81E-6D6E6003EB35}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8057A22D-631C-422A-9FCA-A1F2EEBCF486}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CDACB82E-3CF7-45D7-BC85-C11DE9DCCD32}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A11A2B40-52B6-4318-977D-FABE0B1ED405}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3636,7 +3636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBDE65F-CBFF-4EEA-ABFF-F02E88E56808}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF26F4F6-40AA-4C41-B926-8C46209698DE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4797,18 +4797,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{707AF813-CBA9-4F3D-B5B2-FA961E0069B2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FF276D62-DE62-42FF-A1DC-09BE1B3869A8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CFB31111-1981-464D-8CEA-099D75F670F6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{663AB820-99DC-45ED-B029-71654C15CE7F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BE73C6C0-8CBA-4065-93A9-C234360EDEEA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D6DF777B-FC1A-4CB7-85FE-5D969FBCD1CE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4A73F69A-361C-4D5E-AA38-DA82CB8F5F34}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5D0264E6-816A-4C7E-92F3-5018AAFC40D0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{97B93E6C-1796-4DCE-BF0B-B44D2BA9DF30}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2BBC5CA1-12CF-445B-B13F-77885D0CE2BA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{87CFB37A-CB19-48E8-B767-DAAD05352CDF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0C720FFC-E16F-41CE-8726-510FE745F632}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9DA6D886-D953-44A8-9597-5C90392DE18A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0A9D17CE-F255-41FF-BA65-5A7E12C30A26}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2F6C8A4B-B1AC-4D47-A346-D121F4540B14}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BAD9C5DC-7971-4FBE-BF8C-506A3D5117D4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{88140535-BCB1-4140-8521-A2E96AE8295E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{451D5388-6AC4-4ED1-ACBF-E8EF06C6EDCD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{63A78E22-241E-4347-88A4-235A0AC98769}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AEFB64E7-3803-40F7-94D6-ABDE10F808F7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3F606514-A263-474D-93B8-6A163D884EE1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{60C91EB5-9F90-4F04-9A99-76180FE7832A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{498E541F-E553-45EA-8859-3FA80301D133}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{006BAFB4-75F3-4DB4-B604-B22468C1A5E6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4821,7 +4821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8086261E-49AE-4ADC-A511-B4BAF3055177}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27D81AB-E032-43F6-9FDB-82F750F5E9FF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5974,18 +5974,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{53398C4F-ACE4-4714-87D7-31EDE8EC51F1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{96FBDA74-E3AB-48C7-8029-5A6F268EF4BC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3CCE2DB1-6F3D-479D-9B0F-AE3FBC4DEA04}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A2E2D221-156A-4F28-9679-252475F2333C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3711FE0B-F1D1-4905-B4C0-246799C6771E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D7CBED93-F52F-4CAB-A85B-0B17C5A13E09}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{24A2FAF2-FC57-436C-B192-313F01673247}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E95DD6FB-04D0-4C8B-8047-69A7E6C4C494}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C0D534FA-3A3C-4DE2-92B2-7F2F0AD6F4A1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{06BFCAE3-A37B-417F-9042-58258D017F3D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{43F1BB8B-844E-40B6-8676-BFDFBA287BB6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3842037F-28A4-43DD-9583-0119601CBAB5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{66ACC129-C7EA-433D-90DB-C2D23C68E883}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D45EFE19-B995-4E65-9D70-482922E9A62F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0597C2EA-D518-4134-B894-AEF2C17E164C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{25DFB8AD-2D29-4BF1-A298-C7075CE255FA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3178293A-CE0C-4A8F-8CF8-E8A215384D18}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D93FD087-2961-47E6-B45A-E2894D9E3EEE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BDFBA77F-C425-46E2-876C-8A96D6B77D43}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8EAE7E38-AC89-4CD7-B830-B27E386F5752}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D41D873A-3942-4037-9A25-7FC73C03563C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{942B2482-E580-4943-A33B-333DB75AB888}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{86D28C86-20A7-4628-B784-B452B09092A1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{743C94BD-F20F-493E-A1BB-478D861AFFAF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5998,7 +5998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044DA906-0049-4E71-9DED-8F246DCDAD35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D2B198-08B6-4300-B7C0-E4605D71F465}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7187,18 +7187,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4414F53C-AD0C-41C2-AD89-0D9BD8480EDA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{121C7E81-61D4-4B47-BFB8-7F751E2E38F9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4780C63E-38AC-4DF4-9BAA-62C8491F95B7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C5B6F205-DCB6-4D4F-8914-CED8CB7A5813}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0E798026-B9B5-4FDD-A37D-DB38D5E3D4FD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7CC69B4E-E741-42FB-AD96-ECD421EFD41E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2480C23E-6323-4B7E-871A-1CEE86C757F6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8CEEB9B8-E9D8-475D-B19F-3EBFB634127A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CE57A72A-E975-4D51-A24E-32F2B89DF164}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EBB79BA7-BBFD-4D34-92E6-EBA0CD3E178B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{74AF7269-2ADC-4C5B-8CAA-0CF014314107}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0501EED6-B117-4547-8014-9ED67736E5BA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5B3D0FBF-EA5E-4365-B67C-E810D85F305B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D2646CE0-676C-4FF7-96B0-E14610CE60BB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FB253225-0D4D-49FC-837A-9772F512682E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C3AF9D9E-BB36-4B32-92DF-20776B96DA96}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BD62157E-EF28-42B2-8F3A-AF47ED34981F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A87C7D53-BDE5-4F58-A647-E6E400FC95C9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5AFEEB30-EA56-4E86-BE84-EE4C6FEEADD1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8E2DC419-D52E-4047-9D2B-01F39A5511DC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CAAC2939-7786-4768-854E-8227E885D602}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3B6C222D-2741-4184-80CD-4EB6E51EA07B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2E54F059-1C8A-46DF-A4CB-3AA78ECDE55E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{ED7559F1-0C9F-4DE3-846A-9B909C65E221}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7211,7 +7211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5393EEB-2690-4DAD-9012-417B51426838}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4D016B-3416-4F17-B980-1D4D9DF634D2}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8396,18 +8396,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BF41F689-D8E2-4867-ADB0-25516F60B2BE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3F3176D3-633B-45BB-892F-35779BE08710}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FBE37DD1-8390-4F57-96EF-EC962982926B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AD2C99CA-4BF2-4A2A-92BC-71F59A5AA430}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6E069060-F9B5-48F1-9F3A-B434AFF0E6EA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C5287B7E-4A68-4BBF-8F94-66DA5D8BCEF5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{77A760AD-0E0E-40EC-BCB3-B78B16DFEED6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D4951ED2-9935-4F75-B315-2E2DDEE4EC2D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B43D4331-DE4B-4373-9766-4764A8E6B785}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5695734C-0568-4AF3-86A5-96A2D9F65BFA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DC993455-D530-4BA0-8A1C-81726543F917}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FE852C08-8E1E-4731-AA21-D946BC586B61}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5B8F1700-DF60-4687-9738-F481FD0E4499}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{733487E9-6F68-44EC-8217-7C9E361BC45F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{393A9A80-4654-4421-9792-F939BD623690}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D96911B6-FEDD-4B02-B562-696444B5555B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{726C9D25-7655-4341-A8DA-F4F810C27D4E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{976E4D53-C695-4E96-8564-0067F4E25564}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{101C8F29-B898-4CD5-85A6-EF19940488C7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FFFE9042-3F5B-4D4A-811A-F1D87FF57F9E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0EC1698E-C634-4401-B185-4C3E6A821EB8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C9A432EB-6878-4AE0-91FB-58F2154E17B0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{21F1B04F-E19D-4D7E-A013-4719CB8BF42D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{79E2C6C6-36ED-450D-87E0-5B9AC5C205EA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8420,7 +8420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8417989-022C-4594-9376-3C9C0120C6A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4EF956-E830-4D6D-B824-32992E42963C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9605,18 +9605,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F52B01C1-0B5B-4CF0-86D0-DD1BB24E53B1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{461F5755-A012-4F23-8F33-39902CB08B2E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{251F13AE-C962-4704-82B2-8F290008FEB6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{80FBAA8C-AB6F-4DFE-9888-0C4631D289AD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4248A73D-B6DC-4CE5-B70A-E45F9612CF5D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{89188BC3-F70D-4632-948F-B4178E38479A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{31D94403-5E1F-4D2D-A76E-FA235091691D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D2B59C7D-AB64-4862-86BF-BF42374D670D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D05E0C91-74AA-4311-A5F6-0A932FB63A11}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5623D71F-0320-4CC2-87FB-4279424AE5F4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9F885031-9062-4DCA-B881-102F5F75C12F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9CA44A7A-6BCE-4EC1-AE66-49E062E428A2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D379EA61-408D-40C8-AB90-71D5D9A0190A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6E31E1C2-789C-4235-A1CB-03FDEA6BF1EB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1EDD29EB-9DC8-402D-812F-AD86376F0326}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E28F3E6F-5EED-4145-BD9A-B8BF8A5B90D2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4DA0C560-F85E-4D4E-8C1A-213B7997F21C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{63CADDF6-B3F4-405A-8D73-F546C913C471}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F8107846-FAA5-4BF8-8BF7-49F6A4C690AE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1ABAA694-BE18-49E9-A2B0-FD881D48B70A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{879B1107-514E-4898-BE3C-D627D9E40FB0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B1D66C3A-4BD3-4B3A-8902-E659192EEBCB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9F917CB1-BA64-42CE-B2B9-F34E9601C5E5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6E56DE19-EEDD-4092-9FD7-6F9602AA244D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9629,7 +9629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C79D6EA-6900-49FA-997F-FFF21FC747B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9998D33-6188-4B3B-8A70-DE5BD6F81AF7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10812,18 +10812,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4C0810A1-FE34-416B-A98D-EB36DB409CF1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BFD7A0C5-4485-46C9-87E5-AE9C0599EAF2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8C69A266-869A-49CC-8518-84BDE767474A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{55E3EAFA-9F9C-4C1D-A67D-0FFA8833CE95}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1A197D80-83E1-42F5-96A9-34D4A10A623C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2C916982-F1AC-45C6-A584-88DD35326487}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{015C4C83-1065-4C49-ABD6-A76F63109B08}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9D650835-967E-40B5-B8B1-ECD2550D8696}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D7AAFE3D-A162-46DC-B25D-36734C1CA944}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{706BD3D7-20DD-491B-BDA9-C787A1AAA801}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B4AF7C4A-9192-4CC0-83E0-9E87FA1CB2B2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{57B8955C-B772-4FE1-9B8B-F19F64FFA57F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0E4B18A4-2A0D-4CFE-9968-4086B072B824}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{87294FC8-E98D-4005-AC35-2B896D35771F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2494EDCE-1653-4BC5-9ABC-9CCEF0D172B0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C9FA9977-F568-4A2B-A8E9-6D2865D54514}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8F646B5E-D3AF-48B0-A62A-CCC00014B13A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D325703A-210B-4B6B-8C17-A996909EABA2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0DA8C2CA-3F09-4642-A09D-800A5B7DECFF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{88D8D1E8-FD8E-4CA7-ADCE-F168DECD5DDD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{51033EE7-3E05-4A8C-BCE7-6BFD6938B414}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F9C3D75F-786C-4E09-B038-5F5B823D8BD3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B8836A40-A293-4291-9212-9A55106CEA58}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4277D963-168A-442B-9BCA-13F3152448BF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10836,7 +10836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0B5161-6FCC-46B2-9B9D-5426DD5913AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF6226E-099D-4DB7-8218-EE64F02B24C9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12021,18 +12021,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6F594C73-D98F-4FFE-AF5B-A5AF2614CF8D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1319866D-5946-4E1E-BEEF-4CB35A2F05F6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4318725D-4C95-4845-8062-EB6AA6EFABBA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{970C87AB-5313-47A2-B377-5E9E13B9254A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{201BD289-2A64-47EF-9C7B-E909BE6F2792}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A639636F-2E0B-47C0-9EB7-34CA58DAF597}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{29ED40D3-6EB9-4A49-B3F1-D25AF4AFDEC1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B1F706DE-8C82-4758-B190-853B6D0607DB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{167EB4C2-D0EC-4EFD-8ABC-E2B9F2C23849}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E1D3969A-167D-42AA-970F-79468E64C4BA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F9A4CF60-1D6C-4BD3-BCA9-6B2D626D71E3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4CA447F6-46B2-47C2-9826-AFAB0399EEE1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{68152E6A-7438-42E8-8B75-36F2CB56E4E1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{31215001-CAF4-4F6B-894F-B10A239F913C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{18097248-51F0-4341-96BF-7894FEE022B0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DE293D67-B3FA-433B-A0B8-0E745948487C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6E409828-27FF-46B4-960F-31B35618C0E4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{07008C10-176F-4C41-B87C-9CDF824D6AD5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C2DA28D4-F866-4A36-A617-29141EBACDF6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2991FD25-3F74-4B86-81A0-7979A2E1E41F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{38DF8578-94DE-4078-9760-FF547AFCE25C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A5B3E093-A2F6-4CCC-B8EF-D34494E4A122}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{47A6CEF6-550E-45D7-B130-D00ACECFB55B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{15A15158-17CA-492A-B279-1234CD5EB73C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12045,7 +12045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC360693-549F-4E69-9A4D-1A0CA54787BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDA565E-4E7C-4835-8A46-D7D22F4E6AA3}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13226,18 +13226,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{148F7840-14B3-491E-95B2-F84563718E2E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4874A681-E836-43E3-9E57-DAC93346A513}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4684319A-719C-47DF-9940-AFEC710BE0FB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3B1A4BD2-68E1-400D-A1A8-9EA84F2C5C4A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0345546A-2D14-4ACE-967A-4FE0126004D7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9A6F40C3-E922-440C-95A8-3FBC8C5430E9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8E2337A8-6F3C-45E4-90B8-2556ECD667A7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C904D32E-D24A-4F50-B511-89E921985D78}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3D8CB07F-1955-4776-B597-ED42E209D1F6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2AFAC4B3-8349-47CC-955A-37DC97DBFEB8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{75693B48-636B-4031-AA28-90B80B57AF6A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4717A12B-B0DE-4F3B-A64F-142ED2E40C68}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A58DCF66-E685-4EF7-869A-AE1DD3A2CD10}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{00D43472-6840-4C3A-BACA-AC4961018A4B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9FDCDD0B-BB4A-4A80-9616-FB787C78984E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DD33286F-DB7C-440C-A1D4-ECA7A4E1FB8D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{445EA227-07EA-4177-AFA6-DDF36E3DB3BD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5400FCC6-59B0-46C1-B8AB-D2BCCBCA17F0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DFC88FD0-A81F-47F6-9142-244BB79F4966}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F1269BC9-2000-4FE6-A674-75922647A82D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1C826129-145A-495E-84F2-4E6650FCEED1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2BD412E1-3B68-409F-ABAC-456E56F8F64B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DF78ABAD-DA29-41B8-BB29-00839AA3FF66}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BDEAD6E4-8DCF-42FF-A7A5-C3A3B2BDC6B3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13250,7 +13250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F4F633-C216-4472-BF4B-7DF17AD8834F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7F2342-F41E-4937-A7B2-815E503E2CE4}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14427,18 +14427,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{596FD976-E1DB-4B21-BF1F-808D22919860}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{342DF172-20CF-46E0-AA6B-9A52456BDFDC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{110C2FF7-60FC-45BC-BB21-EDCB8479C096}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{579037A9-C844-4830-AE2A-C1A1FD6B237B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{98BD9793-A194-4346-90F7-B02C038749DC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{413D81A4-1AF9-46B6-B393-6A03EBC7B9D0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D723ABA0-ED02-41A5-8E30-76058B13D5C7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7F6CD56F-C04D-412C-9851-0BBFCAF7C786}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{87F8B506-0297-4DF4-AF89-8ADE845115A3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B22738CA-D463-4F89-948A-51091A60728E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EE0F36FA-C2F4-4CCB-B0FE-93326DCA6815}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C70407E5-2E69-4026-A469-75B894259EC4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D1936F3C-CCFC-4586-AB66-20B1A6FC39B3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1C65FB43-5EF2-4319-AC8B-D7B306B0447B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{95DF67DC-4115-4668-822E-3C5705FC4669}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{18FDC70F-AD07-45CD-B140-4FCCF0545E1E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B77831F3-BC2D-4586-9AE8-5B47DC275F82}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{791FF5FA-FE02-49F9-AFD3-A014F36522AF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C110006C-DACB-4A6F-99AA-EC4E4788EAC2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7676AE35-76B7-4C7B-A31F-A60BE73C60A5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{23802685-F994-45D5-B23C-496FE55CA0C8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{126C8EA1-C143-461C-BDD5-2D59A60D7536}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{775F5D4C-F840-4812-BB05-C434E9142953}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0A907BA0-3A7C-421D-AFB3-F864BC04491A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14451,7 +14451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14668AEC-9E45-4D07-8BE5-FF0CC5F403A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA761061-D7CB-4C95-B726-7DDBB763E7D6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15628,18 +15628,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{52F091C8-5382-4444-9D2D-84E971C17D9D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1919C325-1802-4540-B96F-AF52718265EA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AEBB78B2-BE36-427D-B0E3-70FB3AB4866D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{39CDAC27-CBE0-4622-B508-0F33CE3B4FC6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A3E19C68-249F-4E3A-AE69-124ADF18B7C8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{15A18C24-2056-4048-9C70-8E237EFEB705}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4B1B3AFE-2ABD-4B78-85A0-A4C4683D9C8C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CA07D4EC-3528-40E7-996F-A7A6AD01932A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{089F3F37-39D3-4DDF-8CA2-AE58DE93E7B5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D584CBFC-09B9-4A7D-A926-FE9804686DA0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{90E973C6-9CD2-4565-9D1C-BCB19F3F5E7F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9595B830-083D-42A3-8C92-9764DF706D90}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F9CF4564-5EE1-414E-A6F4-018A98C7AE6F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{022CE445-EA44-4081-BDD8-F21704A1CD03}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1A5F66AA-1FA6-485B-881C-1B6BB5E8612D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{78FDC13C-D287-412B-BA4E-F0F989A5708B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F7518600-2548-4FF7-97B2-75A33AC95594}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{28809152-82CC-405E-A4CB-D71B2B975B51}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{95C8DEAE-C95D-4960-A187-11ADF820F457}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C471D2E3-A71E-4B9F-9390-967442152D3C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6A30B948-031C-42E4-89CA-E7263E26783E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1B1137BC-B7F3-4B6F-A3B9-78F50564815C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CFDE33E3-D4CE-4468-BF46-D3E4FBB23842}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E4412F9B-1A5F-4F01-B332-698A50ED8F9B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
